--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H862"/>
+  <dimension ref="A1:H863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24585,6 +24585,34 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B863" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C863" t="n">
+        <v>2</v>
+      </c>
+      <c r="D863" t="n">
+        <v>0.9720248633251</v>
+      </c>
+      <c r="E863" t="n">
+        <v>-1.108720175008225</v>
+      </c>
+      <c r="F863" t="n">
+        <v>-2.080745038333325</v>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINA</t>
+        </is>
+      </c>
+      <c r="H863" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H863"/>
+  <dimension ref="A1:H864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24459,10 +24459,10 @@
         <v>1.307671648212344</v>
       </c>
       <c r="E858" t="n">
-        <v>-0.445947454977715</v>
+        <v>-0.4435826617330767</v>
       </c>
       <c r="F858" t="n">
-        <v>-1.753619103190059</v>
+        <v>-1.751254309945421</v>
       </c>
       <c r="G858" t="inlineStr">
         <is>
@@ -24487,10 +24487,10 @@
         <v>0.9141261035239875</v>
       </c>
       <c r="E859" t="n">
-        <v>-0.578612356001899</v>
+        <v>-0.5762475627572607</v>
       </c>
       <c r="F859" t="n">
-        <v>-1.492738459525886</v>
+        <v>-1.490373666281248</v>
       </c>
       <c r="G859" t="inlineStr">
         <is>
@@ -24515,10 +24515,10 @@
         <v>1.053361939258685</v>
       </c>
       <c r="E860" t="n">
-        <v>-0.7504539984455839</v>
+        <v>-0.7480892052009457</v>
       </c>
       <c r="F860" t="n">
-        <v>-1.803815937704269</v>
+        <v>-1.801451144459631</v>
       </c>
       <c r="G860" t="inlineStr">
         <is>
@@ -24543,10 +24543,10 @@
         <v>1.232803083283297</v>
       </c>
       <c r="E861" t="n">
-        <v>-0.9283652768838403</v>
+        <v>-0.9236356903945646</v>
       </c>
       <c r="F861" t="n">
-        <v>-2.161168360167137</v>
+        <v>-2.156438773677862</v>
       </c>
       <c r="G861" t="inlineStr">
         <is>
@@ -24571,10 +24571,10 @@
         <v>1.094891901006396</v>
       </c>
       <c r="E862" t="n">
-        <v>-1.034386840685104</v>
+        <v>-1.029657254195829</v>
       </c>
       <c r="F862" t="n">
-        <v>-2.1292787416915</v>
+        <v>-2.124549155202224</v>
       </c>
       <c r="G862" t="inlineStr">
         <is>
@@ -24611,6 +24611,34 @@
       </c>
       <c r="H863" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B864" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C864" t="n">
+        <v>3</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1.081909433149222</v>
+      </c>
+      <c r="E864" t="n">
+        <v>-1.120938273438853</v>
+      </c>
+      <c r="F864" t="n">
+        <v>-2.202847706588074</v>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H864" t="n">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H864"/>
+  <dimension ref="A1:H865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24599,10 +24599,10 @@
         <v>0.9720248633251</v>
       </c>
       <c r="E863" t="n">
-        <v>-1.108720175008225</v>
+        <v>-1.106355381763587</v>
       </c>
       <c r="F863" t="n">
-        <v>-2.080745038333325</v>
+        <v>-2.078380245088687</v>
       </c>
       <c r="G863" t="inlineStr">
         <is>
@@ -24627,10 +24627,10 @@
         <v>1.081909433149222</v>
       </c>
       <c r="E864" t="n">
-        <v>-1.120938273438853</v>
+        <v>-1.11384389370494</v>
       </c>
       <c r="F864" t="n">
-        <v>-2.202847706588074</v>
+        <v>-2.195753326854161</v>
       </c>
       <c r="G864" t="inlineStr">
         <is>
@@ -24638,6 +24638,34 @@
         </is>
       </c>
       <c r="H864" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B865" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C865" t="n">
+        <v>4</v>
+      </c>
+      <c r="D865" t="n">
+        <v>1.660331975677398</v>
+      </c>
+      <c r="E865" t="n">
+        <v>-1.149788751023439</v>
+      </c>
+      <c r="F865" t="n">
+        <v>-2.810120726700838</v>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H865" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H865"/>
+  <dimension ref="A1:H866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24599,10 +24599,10 @@
         <v>0.9720248633251</v>
       </c>
       <c r="E863" t="n">
-        <v>-1.106355381763587</v>
+        <v>-1.108720175008225</v>
       </c>
       <c r="F863" t="n">
-        <v>-2.078380245088687</v>
+        <v>-2.080745038333325</v>
       </c>
       <c r="G863" t="inlineStr">
         <is>
@@ -24627,10 +24627,10 @@
         <v>1.081909433149222</v>
       </c>
       <c r="E864" t="n">
-        <v>-1.11384389370494</v>
+        <v>-1.116208686949577</v>
       </c>
       <c r="F864" t="n">
-        <v>-2.195753326854161</v>
+        <v>-2.198118120098799</v>
       </c>
       <c r="G864" t="inlineStr">
         <is>
@@ -24666,6 +24666,34 @@
         </is>
       </c>
       <c r="H865" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B866" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C866" t="n">
+        <v>5</v>
+      </c>
+      <c r="D866" t="n">
+        <v>2.155746872739679</v>
+      </c>
+      <c r="E866" t="n">
+        <v>-1.152390023592542</v>
+      </c>
+      <c r="F866" t="n">
+        <v>-3.308136896332221</v>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H866" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H866"/>
+  <dimension ref="A1:H867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24683,10 +24683,10 @@
         <v>2.155746872739679</v>
       </c>
       <c r="E866" t="n">
-        <v>-1.152390023592542</v>
+        <v>-1.145295643858629</v>
       </c>
       <c r="F866" t="n">
-        <v>-3.308136896332221</v>
+        <v>-3.301042516598308</v>
       </c>
       <c r="G866" t="inlineStr">
         <is>
@@ -24694,6 +24694,34 @@
         </is>
       </c>
       <c r="H866" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B867" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C867" t="n">
+        <v>6</v>
+      </c>
+      <c r="D867" t="n">
+        <v>2.520488731288884</v>
+      </c>
+      <c r="E867" t="n">
+        <v>-1.066942161019629</v>
+      </c>
+      <c r="F867" t="n">
+        <v>-3.587430892308513</v>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H867" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H867"/>
+  <dimension ref="A1:H868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24683,10 +24683,10 @@
         <v>2.155746872739679</v>
       </c>
       <c r="E866" t="n">
-        <v>-1.145295643858629</v>
+        <v>-1.142930850613991</v>
       </c>
       <c r="F866" t="n">
-        <v>-3.301042516598308</v>
+        <v>-3.29867772335367</v>
       </c>
       <c r="G866" t="inlineStr">
         <is>
@@ -24711,10 +24711,10 @@
         <v>2.520488731288884</v>
       </c>
       <c r="E867" t="n">
-        <v>-1.066942161019629</v>
+        <v>-1.062212574530353</v>
       </c>
       <c r="F867" t="n">
-        <v>-3.587430892308513</v>
+        <v>-3.582701305819237</v>
       </c>
       <c r="G867" t="inlineStr">
         <is>
@@ -24722,6 +24722,34 @@
         </is>
       </c>
       <c r="H867" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B868" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C868" t="n">
+        <v>7</v>
+      </c>
+      <c r="D868" t="n">
+        <v>2.181858040123808</v>
+      </c>
+      <c r="E868" t="n">
+        <v>-0.9834649594839108</v>
+      </c>
+      <c r="F868" t="n">
+        <v>-3.165322999607719</v>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H868" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H868"/>
+  <dimension ref="A1:H869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24683,10 +24683,10 @@
         <v>2.155746872739679</v>
       </c>
       <c r="E866" t="n">
-        <v>-1.142930850613991</v>
+        <v>-1.145295643858629</v>
       </c>
       <c r="F866" t="n">
-        <v>-3.29867772335367</v>
+        <v>-3.301042516598308</v>
       </c>
       <c r="G866" t="inlineStr">
         <is>
@@ -24711,10 +24711,10 @@
         <v>2.520488731288884</v>
       </c>
       <c r="E867" t="n">
-        <v>-1.062212574530353</v>
+        <v>-1.064577367774991</v>
       </c>
       <c r="F867" t="n">
-        <v>-3.582701305819237</v>
+        <v>-3.585066099063876</v>
       </c>
       <c r="G867" t="inlineStr">
         <is>
@@ -24739,10 +24739,10 @@
         <v>2.181858040123808</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.9834649594839108</v>
+        <v>-0.992924132462463</v>
       </c>
       <c r="F868" t="n">
-        <v>-3.165322999607719</v>
+        <v>-3.174782172586271</v>
       </c>
       <c r="G868" t="inlineStr">
         <is>
@@ -24750,6 +24750,34 @@
         </is>
       </c>
       <c r="H868" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B869" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C869" t="n">
+        <v>8</v>
+      </c>
+      <c r="D869" t="n">
+        <v>1.83674179378212</v>
+      </c>
+      <c r="E869" t="n">
+        <v>-0.9951312728241252</v>
+      </c>
+      <c r="F869" t="n">
+        <v>-2.831873066606245</v>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H869" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H869"/>
+  <dimension ref="A1:H870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24767,10 +24767,10 @@
         <v>1.83674179378212</v>
       </c>
       <c r="E869" t="n">
-        <v>-0.9951312728241252</v>
+        <v>-0.999860859313401</v>
       </c>
       <c r="F869" t="n">
-        <v>-2.831873066606245</v>
+        <v>-2.836602653095521</v>
       </c>
       <c r="G869" t="inlineStr">
         <is>
@@ -24778,6 +24778,34 @@
         </is>
       </c>
       <c r="H869" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B870" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C870" t="n">
+        <v>9</v>
+      </c>
+      <c r="D870" t="n">
+        <v>1.510498057421354</v>
+      </c>
+      <c r="E870" t="n">
+        <v>-1.02295700666936</v>
+      </c>
+      <c r="F870" t="n">
+        <v>-2.533455064090714</v>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H870" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H870"/>
+  <dimension ref="A1:H871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24795,10 +24795,10 @@
         <v>1.510498057421354</v>
       </c>
       <c r="E870" t="n">
-        <v>-1.02295700666936</v>
+        <v>-1.018227420180084</v>
       </c>
       <c r="F870" t="n">
-        <v>-2.533455064090714</v>
+        <v>-2.528725477601439</v>
       </c>
       <c r="G870" t="inlineStr">
         <is>
@@ -24806,6 +24806,34 @@
         </is>
       </c>
       <c r="H870" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B871" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C871" t="n">
+        <v>10</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1.801689931648334</v>
+      </c>
+      <c r="E871" t="n">
+        <v>-1.01373431301527</v>
+      </c>
+      <c r="F871" t="n">
+        <v>-2.815424244663604</v>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H871" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H871"/>
+  <dimension ref="A1:H872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24823,10 +24823,10 @@
         <v>1.801689931648334</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.01373431301527</v>
+        <v>-1.006639933281357</v>
       </c>
       <c r="F871" t="n">
-        <v>-2.815424244663604</v>
+        <v>-2.808329864929691</v>
       </c>
       <c r="G871" t="inlineStr">
         <is>
@@ -24834,6 +24834,34 @@
         </is>
       </c>
       <c r="H871" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B872" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C872" t="n">
+        <v>11</v>
+      </c>
+      <c r="D872" t="n">
+        <v>1.501655690444384</v>
+      </c>
+      <c r="E872" t="n">
+        <v>-1.055512327003872</v>
+      </c>
+      <c r="F872" t="n">
+        <v>-2.557168017448256</v>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H872" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H872"/>
+  <dimension ref="A1:H873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24571,10 +24571,10 @@
         <v>1.094891901006396</v>
       </c>
       <c r="E862" t="n">
-        <v>-1.029657254195829</v>
+        <v>-1.02729246095119</v>
       </c>
       <c r="F862" t="n">
-        <v>-2.124549155202224</v>
+        <v>-2.122184361957586</v>
       </c>
       <c r="G862" t="inlineStr">
         <is>
@@ -24599,10 +24599,10 @@
         <v>0.9720248633251</v>
       </c>
       <c r="E863" t="n">
-        <v>-1.108720175008225</v>
+        <v>-1.103990588518949</v>
       </c>
       <c r="F863" t="n">
-        <v>-2.080745038333325</v>
+        <v>-2.076015451844049</v>
       </c>
       <c r="G863" t="inlineStr">
         <is>
@@ -24627,10 +24627,10 @@
         <v>1.081909433149222</v>
       </c>
       <c r="E864" t="n">
-        <v>-1.116208686949577</v>
+        <v>-1.109114307215664</v>
       </c>
       <c r="F864" t="n">
-        <v>-2.198118120098799</v>
+        <v>-2.191023740364886</v>
       </c>
       <c r="G864" t="inlineStr">
         <is>
@@ -24655,10 +24655,10 @@
         <v>1.660331975677398</v>
       </c>
       <c r="E865" t="n">
-        <v>-1.149788751023439</v>
+        <v>-1.142694371289526</v>
       </c>
       <c r="F865" t="n">
-        <v>-2.810120726700838</v>
+        <v>-2.803026346966925</v>
       </c>
       <c r="G865" t="inlineStr">
         <is>
@@ -24683,10 +24683,10 @@
         <v>2.155746872739679</v>
       </c>
       <c r="E866" t="n">
-        <v>-1.145295643858629</v>
+        <v>-1.135836470880078</v>
       </c>
       <c r="F866" t="n">
-        <v>-3.301042516598308</v>
+        <v>-3.291583343619757</v>
       </c>
       <c r="G866" t="inlineStr">
         <is>
@@ -24711,10 +24711,10 @@
         <v>2.520488731288884</v>
       </c>
       <c r="E867" t="n">
-        <v>-1.064577367774991</v>
+        <v>-1.05511819479644</v>
       </c>
       <c r="F867" t="n">
-        <v>-3.585066099063876</v>
+        <v>-3.575606926085324</v>
       </c>
       <c r="G867" t="inlineStr">
         <is>
@@ -24739,10 +24739,10 @@
         <v>2.181858040123808</v>
       </c>
       <c r="E868" t="n">
-        <v>-0.992924132462463</v>
+        <v>-0.9834649594839108</v>
       </c>
       <c r="F868" t="n">
-        <v>-3.174782172586271</v>
+        <v>-3.165322999607719</v>
       </c>
       <c r="G868" t="inlineStr">
         <is>
@@ -24767,10 +24767,10 @@
         <v>1.83674179378212</v>
       </c>
       <c r="E869" t="n">
-        <v>-0.999860859313401</v>
+        <v>-0.9904016863348488</v>
       </c>
       <c r="F869" t="n">
-        <v>-2.836602653095521</v>
+        <v>-2.827143480116969</v>
       </c>
       <c r="G869" t="inlineStr">
         <is>
@@ -24795,10 +24795,10 @@
         <v>1.510498057421354</v>
       </c>
       <c r="E870" t="n">
-        <v>-1.018227420180084</v>
+        <v>-1.006403453956894</v>
       </c>
       <c r="F870" t="n">
-        <v>-2.528725477601439</v>
+        <v>-2.516901511378249</v>
       </c>
       <c r="G870" t="inlineStr">
         <is>
@@ -24823,10 +24823,10 @@
         <v>1.801689931648334</v>
       </c>
       <c r="E871" t="n">
-        <v>-1.006639933281357</v>
+        <v>-0.9948159670581672</v>
       </c>
       <c r="F871" t="n">
-        <v>-2.808329864929691</v>
+        <v>-2.796505898706501</v>
       </c>
       <c r="G871" t="inlineStr">
         <is>
@@ -24851,10 +24851,10 @@
         <v>1.501655690444384</v>
       </c>
       <c r="E872" t="n">
-        <v>-1.055512327003872</v>
+        <v>-1.04605315402532</v>
       </c>
       <c r="F872" t="n">
-        <v>-2.557168017448256</v>
+        <v>-2.547708844469704</v>
       </c>
       <c r="G872" t="inlineStr">
         <is>
@@ -24862,6 +24862,34 @@
         </is>
       </c>
       <c r="H872" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B873" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C873" t="n">
+        <v>12</v>
+      </c>
+      <c r="D873" t="n">
+        <v>1.573443670735191</v>
+      </c>
+      <c r="E873" t="n">
+        <v>-1.110454356720959</v>
+      </c>
+      <c r="F873" t="n">
+        <v>-2.68389802745615</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H873" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H873"/>
+  <dimension ref="A1:H875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24879,10 +24879,10 @@
         <v>1.573443670735191</v>
       </c>
       <c r="E873" t="n">
-        <v>-1.110454356720959</v>
+        <v>-1.100995183742407</v>
       </c>
       <c r="F873" t="n">
-        <v>-2.68389802745615</v>
+        <v>-2.674438854477598</v>
       </c>
       <c r="G873" t="inlineStr">
         <is>
@@ -24890,6 +24890,62 @@
         </is>
       </c>
       <c r="H873" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B874" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C874" t="n">
+        <v>1</v>
+      </c>
+      <c r="D874" t="n">
+        <v>1.300052214160797</v>
+      </c>
+      <c r="E874" t="n">
+        <v>-1.046210806908295</v>
+      </c>
+      <c r="F874" t="n">
+        <v>-2.346263021069092</v>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H874" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B875" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C875" t="n">
+        <v>2</v>
+      </c>
+      <c r="D875" t="n">
+        <v>1.521183459051304</v>
+      </c>
+      <c r="E875" t="n">
+        <v>-0.9219015086818314</v>
+      </c>
+      <c r="F875" t="n">
+        <v>-2.443084967733136</v>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>CEI NINA</t>
+        </is>
+      </c>
+      <c r="H875" t="n">
         <v>-3</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H875"/>
+  <dimension ref="A1:H876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24934,10 +24934,10 @@
         <v>1.52118345905134</v>
       </c>
       <c r="E875" t="n">
-        <v>-0.9219015086818331</v>
+        <v>-0.9006183694800921</v>
       </c>
       <c r="F875" t="n">
-        <v>-2.443084967733173</v>
+        <v>-2.421801828531432</v>
       </c>
       <c r="G875" t="inlineStr">
         <is>
@@ -24946,6 +24946,34 @@
       </c>
       <c r="H875" t="n">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B876" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C876" t="n">
+        <v>3</v>
+      </c>
+      <c r="D876" t="n">
+        <v>0.8627574922285013</v>
+      </c>
+      <c r="E876" t="n">
+        <v>-0.7023698691379503</v>
+      </c>
+      <c r="F876" t="n">
+        <v>-1.565127361366452</v>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINA</t>
+        </is>
+      </c>
+      <c r="H876" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H876"/>
+  <dimension ref="A1:H877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24934,10 +24934,10 @@
         <v>1.52118345905134</v>
       </c>
       <c r="E875" t="n">
-        <v>-0.9006183694800921</v>
+        <v>-0.8982535762354547</v>
       </c>
       <c r="F875" t="n">
-        <v>-2.421801828531432</v>
+        <v>-2.419437035286794</v>
       </c>
       <c r="G875" t="inlineStr">
         <is>
@@ -24962,10 +24962,10 @@
         <v>0.8627574922285013</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.7023698691379503</v>
+        <v>-0.6881811096701232</v>
       </c>
       <c r="F876" t="n">
-        <v>-1.565127361366452</v>
+        <v>-1.550938601898625</v>
       </c>
       <c r="G876" t="inlineStr">
         <is>
@@ -24974,6 +24974,34 @@
       </c>
       <c r="H876" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B877" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C877" t="n">
+        <v>4</v>
+      </c>
+      <c r="D877" t="n">
+        <v>0.5526056204055007</v>
+      </c>
+      <c r="E877" t="n">
+        <v>-0.4450803641213509</v>
+      </c>
+      <c r="F877" t="n">
+        <v>-0.9976859845268515</v>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="H877" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H877"/>
+  <dimension ref="A1:H878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24990,10 +24990,10 @@
         <v>0.5526056204055007</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.4450803641213509</v>
+        <v>-0.4332563978981613</v>
       </c>
       <c r="F877" t="n">
-        <v>-0.9976859845268515</v>
+        <v>-0.9858620183036619</v>
       </c>
       <c r="G877" t="inlineStr">
         <is>
@@ -25001,6 +25001,34 @@
         </is>
       </c>
       <c r="H877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B878" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C878" t="n">
+        <v>5</v>
+      </c>
+      <c r="D878" t="n">
+        <v>-0.4022029241704677</v>
+      </c>
+      <c r="E878" t="n">
+        <v>-0.1189753756857879</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0.2832275484846798</v>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="H878" t="n">
         <v>0</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H878"/>
+  <dimension ref="A1:H879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25018,10 +25018,10 @@
         <v>-0.4022029241704677</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.1189753756857879</v>
+        <v>-0.1024218229733226</v>
       </c>
       <c r="F878" t="n">
-        <v>0.2832275484846798</v>
+        <v>0.2997811011971451</v>
       </c>
       <c r="G878" t="inlineStr">
         <is>
@@ -25029,6 +25029,34 @@
         </is>
       </c>
       <c r="H878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B879" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C879" t="n">
+        <v>6</v>
+      </c>
+      <c r="D879" t="n">
+        <v>-0.3164548031383833</v>
+      </c>
+      <c r="E879" t="n">
+        <v>0.2928139546471594</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0.6092687577855427</v>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="H879" t="n">
         <v>0</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H879"/>
+  <dimension ref="A1:H880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25046,10 +25046,10 @@
         <v>-0.3164548031383833</v>
       </c>
       <c r="E879" t="n">
-        <v>0.2928139546471594</v>
+        <v>0.2999083343810733</v>
       </c>
       <c r="F879" t="n">
-        <v>0.6092687577855427</v>
+        <v>0.6163631375194567</v>
       </c>
       <c r="G879" t="inlineStr">
         <is>
@@ -25058,6 +25058,34 @@
       </c>
       <c r="H879" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B880" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C880" t="n">
+        <v>7</v>
+      </c>
+      <c r="D880" t="n">
+        <v>-0.5544031227900973</v>
+      </c>
+      <c r="E880" t="n">
+        <v>0.6718903117626155</v>
+      </c>
+      <c r="F880" t="n">
+        <v>1.226293434552713</v>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINO</t>
+        </is>
+      </c>
+      <c r="H880" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H880"/>
+  <dimension ref="A1:H881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25074,10 +25074,10 @@
         <v>-0.5544031227900973</v>
       </c>
       <c r="E880" t="n">
-        <v>0.6718903117626155</v>
+        <v>0.6766198982518912</v>
       </c>
       <c r="F880" t="n">
-        <v>1.226293434552713</v>
+        <v>1.231023021041989</v>
       </c>
       <c r="G880" t="inlineStr">
         <is>
@@ -25085,6 +25085,34 @@
         </is>
       </c>
       <c r="H880" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B881" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C881" t="n">
+        <v>8</v>
+      </c>
+      <c r="D881" t="n">
+        <v>-0.3302191902316354</v>
+      </c>
+      <c r="E881" t="n">
+        <v>1.003119018894898</v>
+      </c>
+      <c r="F881" t="n">
+        <v>1.333338209126533</v>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINO</t>
+        </is>
+      </c>
+      <c r="H881" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H881"/>
+  <dimension ref="A1:H882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25102,10 +25102,10 @@
         <v>-0.3302191902316354</v>
       </c>
       <c r="E881" t="n">
-        <v>1.003119018894898</v>
+        <v>1.014942985118087</v>
       </c>
       <c r="F881" t="n">
-        <v>1.333338209126533</v>
+        <v>1.345162175349722</v>
       </c>
       <c r="G881" t="inlineStr">
         <is>
@@ -25113,6 +25113,34 @@
         </is>
       </c>
       <c r="H881" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B882" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C882" t="n">
+        <v>9</v>
+      </c>
+      <c r="D882" t="n">
+        <v>-0.9876402120629605</v>
+      </c>
+      <c r="E882" t="n">
+        <v>1.330012271745343</v>
+      </c>
+      <c r="F882" t="n">
+        <v>2.317652483808304</v>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINO</t>
+        </is>
+      </c>
+      <c r="H882" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H882"/>
+  <dimension ref="A1:H883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25130,10 +25130,10 @@
         <v>-0.9876402120629605</v>
       </c>
       <c r="E882" t="n">
-        <v>1.330012271745343</v>
+        <v>1.332377064989982</v>
       </c>
       <c r="F882" t="n">
-        <v>2.317652483808304</v>
+        <v>2.320017277052942</v>
       </c>
       <c r="G882" t="inlineStr">
         <is>
@@ -25142,6 +25142,34 @@
       </c>
       <c r="H882" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B883" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C883" t="n">
+        <v>10</v>
+      </c>
+      <c r="D883" t="n">
+        <v>-1.039643104709821</v>
+      </c>
+      <c r="E883" t="n">
+        <v>1.596997429064963</v>
+      </c>
+      <c r="F883" t="n">
+        <v>2.636640533774784</v>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>CEI NINO</t>
+        </is>
+      </c>
+      <c r="H883" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H883"/>
+  <dimension ref="A1:H884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25158,10 +25158,10 @@
         <v>-1.039643104709821</v>
       </c>
       <c r="E883" t="n">
-        <v>1.596997429064963</v>
+        <v>1.611186188532791</v>
       </c>
       <c r="F883" t="n">
-        <v>2.636640533774784</v>
+        <v>2.650829293242612</v>
       </c>
       <c r="G883" t="inlineStr">
         <is>
@@ -25170,6 +25170,34 @@
       </c>
       <c r="H883" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B884" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C884" t="n">
+        <v>11</v>
+      </c>
+      <c r="D884" t="n">
+        <v>-0.984487451190588</v>
+      </c>
+      <c r="E884" t="n">
+        <v>1.874466503102476</v>
+      </c>
+      <c r="F884" t="n">
+        <v>2.858953954293064</v>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINO</t>
+        </is>
+      </c>
+      <c r="H884" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H884"/>
+  <dimension ref="A1:H885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24962,10 +24962,10 @@
         <v>0.8627574922285013</v>
       </c>
       <c r="E876" t="n">
-        <v>-0.6881811096701232</v>
+        <v>-0.6905459029147606</v>
       </c>
       <c r="F876" t="n">
-        <v>-1.550938601898625</v>
+        <v>-1.553303395143262</v>
       </c>
       <c r="G876" t="inlineStr">
         <is>
@@ -24990,10 +24990,10 @@
         <v>0.5526056204055007</v>
       </c>
       <c r="E877" t="n">
-        <v>-0.4332563978981613</v>
+        <v>-0.4356211911427987</v>
       </c>
       <c r="F877" t="n">
-        <v>-0.9858620183036619</v>
+        <v>-0.9882268115482994</v>
       </c>
       <c r="G877" t="inlineStr">
         <is>
@@ -25018,10 +25018,10 @@
         <v>-0.4022029241704677</v>
       </c>
       <c r="E878" t="n">
-        <v>-0.1024218229733226</v>
+        <v>-0.1071514094625975</v>
       </c>
       <c r="F878" t="n">
-        <v>0.2997811011971451</v>
+        <v>0.2950515147078703</v>
       </c>
       <c r="G878" t="inlineStr">
         <is>
@@ -25046,10 +25046,10 @@
         <v>-0.3164548031383833</v>
       </c>
       <c r="E879" t="n">
-        <v>0.2999083343810733</v>
+        <v>0.2951787478917985</v>
       </c>
       <c r="F879" t="n">
-        <v>0.6163631375194567</v>
+        <v>0.6116335510301818</v>
       </c>
       <c r="G879" t="inlineStr">
         <is>
@@ -25074,10 +25074,10 @@
         <v>-0.5544031227900973</v>
       </c>
       <c r="E880" t="n">
-        <v>0.6766198982518912</v>
+        <v>0.6718903117626163</v>
       </c>
       <c r="F880" t="n">
-        <v>1.231023021041989</v>
+        <v>1.226293434552713</v>
       </c>
       <c r="G880" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         <v>-0.3302191902316354</v>
       </c>
       <c r="E881" t="n">
-        <v>1.014942985118087</v>
+        <v>1.010213398628812</v>
       </c>
       <c r="F881" t="n">
-        <v>1.345162175349722</v>
+        <v>1.340432588860447</v>
       </c>
       <c r="G881" t="inlineStr">
         <is>
@@ -25130,10 +25130,10 @@
         <v>-0.9876402120629605</v>
       </c>
       <c r="E882" t="n">
-        <v>1.332377064989982</v>
+        <v>1.327647478500706</v>
       </c>
       <c r="F882" t="n">
-        <v>2.320017277052942</v>
+        <v>2.315287690563666</v>
       </c>
       <c r="G882" t="inlineStr">
         <is>
@@ -25158,10 +25158,10 @@
         <v>-1.039643104709821</v>
       </c>
       <c r="E883" t="n">
-        <v>1.611186188532791</v>
+        <v>1.606456602043514</v>
       </c>
       <c r="F883" t="n">
-        <v>2.650829293242612</v>
+        <v>2.646099706753336</v>
       </c>
       <c r="G883" t="inlineStr">
         <is>
@@ -25186,10 +25186,10 @@
         <v>-0.984487451190588</v>
       </c>
       <c r="E884" t="n">
-        <v>1.874466503102476</v>
+        <v>1.8697369166132</v>
       </c>
       <c r="F884" t="n">
-        <v>2.858953954293064</v>
+        <v>2.854224367803788</v>
       </c>
       <c r="G884" t="inlineStr">
         <is>
@@ -25197,6 +25197,34 @@
         </is>
       </c>
       <c r="H884" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B885" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C885" t="n">
+        <v>12</v>
+      </c>
+      <c r="D885" t="n">
+        <v>-0.5616810486809034</v>
+      </c>
+      <c r="E885" t="n">
+        <v>2.098570076252661</v>
+      </c>
+      <c r="F885" t="n">
+        <v>2.660251124933564</v>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINO</t>
+        </is>
+      </c>
+      <c r="H885" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H885"/>
+  <dimension ref="A1:H886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25214,10 +25214,10 @@
         <v>-0.5616810486809034</v>
       </c>
       <c r="E885" t="n">
-        <v>2.098570076252661</v>
+        <v>2.086746110029471</v>
       </c>
       <c r="F885" t="n">
-        <v>2.660251124933564</v>
+        <v>2.648427158710374</v>
       </c>
       <c r="G885" t="inlineStr">
         <is>
@@ -25225,6 +25225,34 @@
         </is>
       </c>
       <c r="H885" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B886" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C886" t="n">
+        <v>1</v>
+      </c>
+      <c r="D886" t="n">
+        <v>-0.2352697503884978</v>
+      </c>
+      <c r="E886" t="n">
+        <v>2.203015111224165</v>
+      </c>
+      <c r="F886" t="n">
+        <v>2.438284861612662</v>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINO</t>
+        </is>
+      </c>
+      <c r="H886" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CEI/data/new_CEI.xlsx
+++ b/CEI/data/new_CEI.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H886"/>
+  <dimension ref="A1:H887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25158,10 +25158,10 @@
         <v>-1.039643104709821</v>
       </c>
       <c r="E883" t="n">
-        <v>1.606456602043514</v>
+        <v>1.608821395288153</v>
       </c>
       <c r="F883" t="n">
-        <v>2.646099706753336</v>
+        <v>2.648464499997974</v>
       </c>
       <c r="G883" t="inlineStr">
         <is>
@@ -25186,10 +25186,10 @@
         <v>-0.984487451190588</v>
       </c>
       <c r="E884" t="n">
-        <v>1.8697369166132</v>
+        <v>1.872101709857838</v>
       </c>
       <c r="F884" t="n">
-        <v>2.854224367803788</v>
+        <v>2.856589161048426</v>
       </c>
       <c r="G884" t="inlineStr">
         <is>
@@ -25214,10 +25214,10 @@
         <v>-0.5616810486809034</v>
       </c>
       <c r="E885" t="n">
-        <v>2.086746110029471</v>
+        <v>2.089110903274109</v>
       </c>
       <c r="F885" t="n">
-        <v>2.648427158710374</v>
+        <v>2.650791951955012</v>
       </c>
       <c r="G885" t="inlineStr">
         <is>
@@ -25242,10 +25242,10 @@
         <v>-0.2352697503884978</v>
       </c>
       <c r="E886" t="n">
-        <v>2.203015111224165</v>
+        <v>2.193555938245613</v>
       </c>
       <c r="F886" t="n">
-        <v>2.438284861612662</v>
+        <v>2.428825688634111</v>
       </c>
       <c r="G886" t="inlineStr">
         <is>
@@ -25253,6 +25253,34 @@
         </is>
       </c>
       <c r="H886" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B887" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C887" t="n">
+        <v>2</v>
+      </c>
+      <c r="D887" t="n">
+        <v>-0.2880364668431653</v>
+      </c>
+      <c r="E887" t="n">
+        <v>2.187801608016994</v>
+      </c>
+      <c r="F887" t="n">
+        <v>2.475838074860159</v>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>NINO3.4 NINO</t>
+        </is>
+      </c>
+      <c r="H887" t="n">
         <v>1</v>
       </c>
     </row>
